--- a/expense_list2016/201603_expense_list.xlsx
+++ b/expense_list2016/201603_expense_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="718">
   <si>
     <t>nid</t>
   </si>
@@ -2145,6 +2145,30 @@
   </si>
   <si>
     <t>디미 (종로구효자로37)</t>
+  </si>
+  <si>
+    <t>물순환안전국 난지물재생센터 운영과 3월 업무추진비 사용내역</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/10807542</t>
+  </si>
+  <si>
+    <t>사업소</t>
+  </si>
+  <si>
+    <t>물재생센터</t>
+  </si>
+  <si>
+    <t>난지물재생센터</t>
+  </si>
+  <si>
+    <t>운영과</t>
+  </si>
+  <si>
+    <t>2016-03-16 10:07</t>
+  </si>
+  <si>
+    <t>다농마트(마포구 월드컵로235)</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2507,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -18265,6 +18289,52 @@
       </c>
       <c r="R340">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18">
+      <c r="A341">
+        <v>10807542</v>
+      </c>
+      <c r="B341" t="s">
+        <v>710</v>
+      </c>
+      <c r="C341" t="s">
+        <v>711</v>
+      </c>
+      <c r="D341" t="s">
+        <v>712</v>
+      </c>
+      <c r="E341" t="s">
+        <v>713</v>
+      </c>
+      <c r="F341" t="s">
+        <v>714</v>
+      </c>
+      <c r="G341" t="s">
+        <v>715</v>
+      </c>
+      <c r="H341"/>
+      <c r="I341">
+        <v>2016</v>
+      </c>
+      <c r="J341">
+        <v>3</v>
+      </c>
+      <c r="K341"/>
+      <c r="L341"/>
+      <c r="M341"/>
+      <c r="N341" t="s">
+        <v>716</v>
+      </c>
+      <c r="O341" t="s">
+        <v>717</v>
+      </c>
+      <c r="P341"/>
+      <c r="Q341" t="s">
+        <v>26</v>
+      </c>
+      <c r="R341">
+        <v>423100</v>
       </c>
     </row>
   </sheetData>

--- a/expense_list2016/201603_expense_list.xlsx
+++ b/expense_list2016/201603_expense_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="729">
   <si>
     <t>nid</t>
   </si>
@@ -2169,6 +2169,39 @@
   </si>
   <si>
     <t>다농마트(마포구 월드컵로235)</t>
+  </si>
+  <si>
+    <t>2016년 3월 송파소방서 예방과 업무추진비 집행 내역</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/11650182</t>
+  </si>
+  <si>
+    <t>소방재난본부(소방서)</t>
+  </si>
+  <si>
+    <t>송파소방서</t>
+  </si>
+  <si>
+    <t>예방과</t>
+  </si>
+  <si>
+    <t>2016-03-29 14:02</t>
+  </si>
+  <si>
+    <t>가야촌 유황오리 (송파구 오금로 533)</t>
+  </si>
+  <si>
+    <t>예방과장 박성진 외 19명</t>
+  </si>
+  <si>
+    <t>2016-03-10 13:21</t>
+  </si>
+  <si>
+    <t>송파소방서 예방과 (송파구 오금로51길 56)</t>
+  </si>
+  <si>
+    <t>민원인</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +2540,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R341"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -18335,6 +18368,98 @@
       </c>
       <c r="R341">
         <v>423100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18">
+      <c r="A342">
+        <v>11650182</v>
+      </c>
+      <c r="B342" t="s">
+        <v>718</v>
+      </c>
+      <c r="C342" t="s">
+        <v>719</v>
+      </c>
+      <c r="D342" t="s">
+        <v>720</v>
+      </c>
+      <c r="E342" t="s">
+        <v>721</v>
+      </c>
+      <c r="F342" t="s">
+        <v>722</v>
+      </c>
+      <c r="G342"/>
+      <c r="H342"/>
+      <c r="I342">
+        <v>2016</v>
+      </c>
+      <c r="J342">
+        <v>3</v>
+      </c>
+      <c r="K342"/>
+      <c r="L342"/>
+      <c r="M342"/>
+      <c r="N342" t="s">
+        <v>723</v>
+      </c>
+      <c r="O342" t="s">
+        <v>724</v>
+      </c>
+      <c r="P342" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>26</v>
+      </c>
+      <c r="R342">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18">
+      <c r="A343">
+        <v>11650182</v>
+      </c>
+      <c r="B343" t="s">
+        <v>718</v>
+      </c>
+      <c r="C343" t="s">
+        <v>719</v>
+      </c>
+      <c r="D343" t="s">
+        <v>720</v>
+      </c>
+      <c r="E343" t="s">
+        <v>721</v>
+      </c>
+      <c r="F343" t="s">
+        <v>722</v>
+      </c>
+      <c r="G343"/>
+      <c r="H343"/>
+      <c r="I343">
+        <v>2016</v>
+      </c>
+      <c r="J343">
+        <v>3</v>
+      </c>
+      <c r="K343"/>
+      <c r="L343"/>
+      <c r="M343"/>
+      <c r="N343" t="s">
+        <v>726</v>
+      </c>
+      <c r="O343" t="s">
+        <v>727</v>
+      </c>
+      <c r="P343" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>26</v>
+      </c>
+      <c r="R343">
+        <v>93660</v>
       </c>
     </row>
   </sheetData>
